--- a/data/trans_camb/P2B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,2; 31,21</t>
+          <t>22,73; 31,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,43; 22,47</t>
+          <t>13,51; 22,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,78</t>
+          <t>2,0; 11,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,2; 23,94</t>
+          <t>15,92; 23,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,3; 18,89</t>
+          <t>10,69; 19,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 15,12</t>
+          <t>7,32; 14,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,22; 25,91</t>
+          <t>19,81; 25,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,97; 19,21</t>
+          <t>13,0; 19,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 12,46</t>
+          <t>6,79; 12,7</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>99,93; 168,04</t>
+          <t>99,43; 169,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,06; 119,18</t>
+          <t>61,11; 121,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 57,75</t>
+          <t>9,32; 58,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>56,85; 97,68</t>
+          <t>54,34; 97,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,62; 76,53</t>
+          <t>37,89; 77,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,83; 63,02</t>
+          <t>26,4; 60,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,61; 116,05</t>
+          <t>79,88; 115,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,17; 86,84</t>
+          <t>51,29; 85,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,9; 55,85</t>
+          <t>26,79; 55,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,94; 35,85</t>
+          <t>28,99; 36,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,09; 23,08</t>
+          <t>15,96; 22,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 5,36</t>
+          <t>-1,68; 5,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,12; 38,05</t>
+          <t>30,38; 37,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 27,22</t>
+          <t>20,32; 27,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 18,91</t>
+          <t>-1,57; 20,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,78; 35,98</t>
+          <t>30,82; 36,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,23; 24,01</t>
+          <t>18,98; 24,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 12,58</t>
+          <t>-0,23; 12,52</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>121,34; 180,57</t>
+          <t>120,46; 178,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,44; 115,17</t>
+          <t>66,47; 111,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 27,63</t>
+          <t>-7,15; 25,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>111,65; 159,86</t>
+          <t>109,29; 158,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,57; 113,28</t>
+          <t>72,95; 114,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 73,52</t>
+          <t>-6,37; 82,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>121,33; 159,27</t>
+          <t>121,72; 160,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,59; 105,39</t>
+          <t>74,5; 106,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 54,03</t>
+          <t>-1,01; 54,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,27; 33,4</t>
+          <t>19,15; 33,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,27; 30,58</t>
+          <t>16,38; 30,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 2,62</t>
+          <t>-10,13; 2,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,93; 35,08</t>
+          <t>21,36; 35,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,24; 30,39</t>
+          <t>16,46; 30,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -1,13</t>
+          <t>-12,58; -1,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,14; 32,51</t>
+          <t>22,34; 33,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,78; 28,52</t>
+          <t>18,21; 28,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -1,36</t>
+          <t>-9,85; -1,39</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,78; 157,36</t>
+          <t>68,57; 158,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,59; 146,89</t>
+          <t>58,97; 142,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,88; 12,24</t>
+          <t>-35,71; 11,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64,88; 144,42</t>
+          <t>67,75; 144,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>51,96; 125,24</t>
+          <t>52,67; 122,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,0; -5,03</t>
+          <t>-39,76; -4,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,68; 138,01</t>
+          <t>77,55; 141,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>64,52; 119,06</t>
+          <t>62,76; 118,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,87; -5,83</t>
+          <t>-34,32; -5,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,29; 32,44</t>
+          <t>27,4; 32,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,08; 22,62</t>
+          <t>17,18; 22,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,46</t>
+          <t>-0,39; 4,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,31; 30,22</t>
+          <t>25,6; 30,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,18; 23,1</t>
+          <t>18,4; 23,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 14,01</t>
+          <t>0,76; 13,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,97; 30,57</t>
+          <t>27,21; 30,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,45; 22,02</t>
+          <t>18,45; 22,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 9,17</t>
+          <t>1,27; 9,81</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>118,2; 157,92</t>
+          <t>118,08; 160,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>74,39; 110,43</t>
+          <t>74,38; 108,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 21,46</t>
+          <t>-1,65; 22,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>93,07; 122,2</t>
+          <t>92,64; 121,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>66,06; 92,06</t>
+          <t>67,16; 93,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,36; 55,89</t>
+          <t>2,75; 51,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>106,65; 130,73</t>
+          <t>109,04; 132,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72,88; 94,67</t>
+          <t>74,45; 95,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,84; 38,5</t>
+          <t>5,03; 41,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,73; 31,39</t>
+          <t>23,25; 31,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,51; 22,76</t>
+          <t>13,33; 22,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 11,05</t>
+          <t>2,01; 11,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,92; 23,86</t>
+          <t>16,26; 23,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,69; 19,0</t>
+          <t>9,98; 18,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,32; 14,82</t>
+          <t>7,27; 15,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,81; 25,86</t>
+          <t>20,01; 25,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,0; 19,3</t>
+          <t>13,22; 19,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 12,7</t>
+          <t>6,86; 12,94</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>99,43; 169,97</t>
+          <t>102,28; 175,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>61,11; 121,82</t>
+          <t>60,04; 123,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,32; 58,76</t>
+          <t>9,08; 62,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,34; 97,62</t>
+          <t>58,01; 98,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,89; 77,31</t>
+          <t>35,18; 77,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,4; 60,91</t>
+          <t>25,47; 62,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,88; 115,08</t>
+          <t>77,98; 114,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,29; 85,12</t>
+          <t>53,04; 86,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,79; 55,77</t>
+          <t>26,84; 56,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,99; 36,09</t>
+          <t>28,59; 35,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,96; 22,91</t>
+          <t>16,01; 22,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 5,22</t>
+          <t>-1,74; 5,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,38; 37,99</t>
+          <t>30,76; 37,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,32; 27,34</t>
+          <t>20,09; 27,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 20,92</t>
+          <t>-1,64; 19,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 36,07</t>
+          <t>30,79; 36,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,98; 24,06</t>
+          <t>19,05; 24,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 12,52</t>
+          <t>-0,27; 12,2</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>120,46; 178,49</t>
+          <t>119,47; 178,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,47; 111,49</t>
+          <t>67,79; 114,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 25,29</t>
+          <t>-7,24; 25,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>109,29; 158,18</t>
+          <t>110,54; 159,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>72,95; 114,01</t>
+          <t>72,73; 115,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 82,35</t>
+          <t>-6,24; 81,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>121,72; 160,28</t>
+          <t>120,59; 160,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,5; 106,01</t>
+          <t>75,08; 107,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 54,11</t>
+          <t>-1,11; 52,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,15; 33,58</t>
+          <t>18,74; 34,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,38; 30,09</t>
+          <t>15,69; 30,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 2,29</t>
+          <t>-9,78; 2,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,36; 35,49</t>
+          <t>21,93; 36,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,46; 30,19</t>
+          <t>17,43; 30,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -1,1</t>
+          <t>-12,56; -1,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,34; 33,05</t>
+          <t>22,44; 32,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,21; 28,02</t>
+          <t>18,49; 28,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -1,39</t>
+          <t>-9,77; -1,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>68,57; 158,1</t>
+          <t>65,57; 159,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,97; 142,12</t>
+          <t>57,29; 143,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,71; 11,01</t>
+          <t>-35,78; 10,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>67,75; 144,77</t>
+          <t>69,82; 147,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,67; 122,76</t>
+          <t>55,83; 123,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,76; -4,42</t>
+          <t>-40,63; -5,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>77,55; 141,24</t>
+          <t>77,14; 136,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>62,76; 118,12</t>
+          <t>64,27; 116,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,32; -5,93</t>
+          <t>-34,4; -4,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,4; 32,64</t>
+          <t>27,41; 32,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,18; 22,21</t>
+          <t>17,17; 22,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,6</t>
+          <t>-0,42; 4,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,6; 30,5</t>
+          <t>25,36; 30,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,4; 23,48</t>
+          <t>18,28; 23,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 13,11</t>
+          <t>0,79; 13,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,21; 30,57</t>
+          <t>27,09; 30,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,45; 22,11</t>
+          <t>18,37; 22,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,81</t>
+          <t>1,19; 8,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>118,08; 160,86</t>
+          <t>117,19; 159,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>74,38; 108,61</t>
+          <t>72,79; 108,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 22,84</t>
+          <t>-1,9; 23,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>92,64; 121,62</t>
+          <t>92,32; 122,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>67,16; 93,92</t>
+          <t>66,72; 92,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,75; 51,44</t>
+          <t>2,87; 51,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>109,04; 132,61</t>
+          <t>107,54; 132,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>74,45; 95,14</t>
+          <t>73,77; 94,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,03; 41,09</t>
+          <t>4,84; 36,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,25; 31,54</t>
+          <t>22,2; 31,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,33; 22,51</t>
+          <t>13,43; 22,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 11,35</t>
+          <t>1,81; 10,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,26; 23,78</t>
+          <t>16,2; 23,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,98; 18,71</t>
+          <t>10,3; 18,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 15,07</t>
+          <t>7,72; 15,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,01; 25,65</t>
+          <t>20,22; 25,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,22; 19,18</t>
+          <t>12,97; 19,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,86; 12,94</t>
+          <t>6,95; 12,46</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>102,28; 175,83</t>
+          <t>99,93; 168,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,04; 123,6</t>
+          <t>59,06; 119,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,08; 62,36</t>
+          <t>8,33; 57,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,01; 98,71</t>
+          <t>56,85; 97,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,18; 77,15</t>
+          <t>36,62; 76,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,47; 62,76</t>
+          <t>27,83; 63,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,98; 114,16</t>
+          <t>80,61; 116,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,04; 86,45</t>
+          <t>52,17; 86,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,84; 56,93</t>
+          <t>27,9; 55,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,59; 35,93</t>
+          <t>28,94; 35,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,01; 22,96</t>
+          <t>16,09; 23,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 5,26</t>
+          <t>-1,76; 5,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,76; 37,87</t>
+          <t>31,12; 38,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,09; 27,23</t>
+          <t>20,16; 27,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 19,53</t>
+          <t>-1,34; 18,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,79; 36,0</t>
+          <t>30,78; 35,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,05; 24,25</t>
+          <t>19,23; 24,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 12,2</t>
+          <t>-0,23; 12,58</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>119,47; 178,4</t>
+          <t>121,34; 180,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,79; 114,52</t>
+          <t>67,44; 115,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 25,38</t>
+          <t>-6,97; 27,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>110,54; 159,89</t>
+          <t>111,65; 159,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>72,73; 115,17</t>
+          <t>71,57; 113,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 81,48</t>
+          <t>-5,41; 73,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>120,59; 160,38</t>
+          <t>121,33; 159,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,08; 107,07</t>
+          <t>75,59; 105,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 52,86</t>
+          <t>-0,97; 54,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,74; 34,21</t>
+          <t>19,27; 33,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,69; 30,95</t>
+          <t>16,27; 30,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 2,4</t>
+          <t>-9,95; 2,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,93; 36,19</t>
+          <t>20,93; 35,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,43; 30,26</t>
+          <t>16,24; 30,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,56; -1,25</t>
+          <t>-12,88; -1,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,44; 32,75</t>
+          <t>22,14; 32,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,49; 28,17</t>
+          <t>18,78; 28,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -1,22</t>
+          <t>-9,36; -1,36</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>65,57; 159,22</t>
+          <t>67,78; 157,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>57,29; 143,68</t>
+          <t>58,59; 146,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,78; 10,83</t>
+          <t>-35,88; 12,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>69,82; 147,76</t>
+          <t>64,88; 144,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55,83; 123,73</t>
+          <t>51,96; 125,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,63; -5,29</t>
+          <t>-41,0; -5,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>77,14; 136,18</t>
+          <t>75,68; 138,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>64,27; 116,57</t>
+          <t>64,52; 119,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,4; -4,72</t>
+          <t>-32,87; -5,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,41; 32,56</t>
+          <t>27,29; 32,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,17; 22,33</t>
+          <t>17,08; 22,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,72</t>
+          <t>-0,45; 4,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,36; 30,36</t>
+          <t>25,31; 30,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,28; 23,17</t>
+          <t>18,18; 23,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 13,05</t>
+          <t>0,91; 14,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,09; 30,76</t>
+          <t>26,97; 30,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,37; 22,02</t>
+          <t>18,45; 22,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,78</t>
+          <t>1,22; 9,17</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>117,19; 159,65</t>
+          <t>118,2; 157,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>72,79; 108,53</t>
+          <t>74,39; 110,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 23,31</t>
+          <t>-2,03; 21,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>92,32; 122,02</t>
+          <t>93,07; 122,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>66,72; 92,94</t>
+          <t>66,06; 92,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,87; 51,62</t>
+          <t>3,36; 55,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>107,54; 132,73</t>
+          <t>106,65; 130,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>73,77; 94,76</t>
+          <t>72,88; 94,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,84; 36,36</t>
+          <t>4,84; 38,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,33</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>9,0</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,78</t>
+          <t>1,11; 9,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 15,12</t>
+          <t>7,29; 14,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 12,46</t>
+          <t>6,31; 11,66</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>37,98%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 57,75</t>
+          <t>4,99; 53,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,83; 63,02</t>
+          <t>25,98; 60,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,9; 55,85</t>
+          <t>25,22; 52,38</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>4,12</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 5,36</t>
+          <t>-2,83; 4,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 18,91</t>
+          <t>-3,66; 29,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 12,58</t>
+          <t>-1,98; 19,33</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>17,17%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 27,63</t>
+          <t>-12,0; 20,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 73,52</t>
+          <t>-14,22; 112,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 54,03</t>
+          <t>-8,21; 84,63</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,88</t>
+          <t>-7,75</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>-6,04</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 2,62</t>
+          <t>-10,39; 2,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -1,13</t>
+          <t>-13,49; -1,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -1,36</t>
+          <t>-9,96; -1,93</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-15,95%</t>
+          <t>-17,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,83%</t>
+          <t>-27,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-20,61%</t>
+          <t>-23,08%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,88; 12,24</t>
+          <t>-37,13; 10,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,0; -5,03</t>
+          <t>-43,27; -8,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,87; -5,83</t>
+          <t>-35,14; -8,36</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>3,57</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,46</t>
+          <t>-1,39; 3,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 14,01</t>
+          <t>-0,83; 21,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 9,17</t>
+          <t>-0,17; 13,94</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>14,76%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 21,46</t>
+          <t>-5,96; 16,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,36; 55,89</t>
+          <t>-3,15; 85,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,84; 38,5</t>
+          <t>-0,7; 57,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,2; 31,21</t>
+          <t>22,64; 31,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,43; 22,47</t>
+          <t>13,43; 22,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 9,85</t>
+          <t>1,23; 10,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,2; 23,94</t>
+          <t>15,94; 23,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,3; 18,89</t>
+          <t>10,37; 19,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,5</t>
+          <t>6,35; 14,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,22; 25,91</t>
+          <t>20,46; 25,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,97; 19,21</t>
+          <t>13,15; 19,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,66</t>
+          <t>6,15; 12,05</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>99,93; 168,04</t>
+          <t>99,86; 172,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,06; 119,18</t>
+          <t>59,89; 122,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 53,06</t>
+          <t>5,84; 56,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>56,85; 97,68</t>
+          <t>56,83; 97,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,62; 76,53</t>
+          <t>37,84; 78,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,98; 60,19</t>
+          <t>22,33; 59,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,61; 116,05</t>
+          <t>81,3; 115,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,17; 86,84</t>
+          <t>52,08; 85,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,22; 52,38</t>
+          <t>24,57; 53,49</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,94; 35,85</t>
+          <t>28,57; 35,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,09; 23,08</t>
+          <t>15,81; 22,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 4,09</t>
+          <t>-2,86; 4,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,12; 38,05</t>
+          <t>30,52; 37,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 27,22</t>
+          <t>20,11; 27,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 29,65</t>
+          <t>-3,9; 27,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,78; 35,98</t>
+          <t>30,99; 36,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,23; 24,01</t>
+          <t>19,14; 24,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 19,33</t>
+          <t>-1,97; 20,0</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>121,34; 180,57</t>
+          <t>118,19; 178,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,44; 115,17</t>
+          <t>65,27; 114,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 20,56</t>
+          <t>-12,04; 20,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>111,65; 159,86</t>
+          <t>111,02; 159,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,57; 113,28</t>
+          <t>73,34; 115,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 112,06</t>
+          <t>-15,25; 112,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>121,33; 159,27</t>
+          <t>122,0; 161,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,59; 105,39</t>
+          <t>76,32; 107,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 84,63</t>
+          <t>-8,18; 86,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,27; 33,4</t>
+          <t>19,04; 33,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,27; 30,58</t>
+          <t>16,37; 31,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 2,17</t>
+          <t>-11,01; 2,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,93; 35,08</t>
+          <t>20,92; 35,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,24; 30,39</t>
+          <t>16,61; 30,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -1,92</t>
+          <t>-13,58; -2,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,14; 32,51</t>
+          <t>22,07; 32,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,78; 28,52</t>
+          <t>18,43; 28,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -1,93</t>
+          <t>-10,42; -1,65</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,78; 157,36</t>
+          <t>67,98; 163,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,59; 146,89</t>
+          <t>57,3; 146,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,13; 10,06</t>
+          <t>-39,27; 10,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64,88; 144,42</t>
+          <t>65,76; 147,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>51,96; 125,24</t>
+          <t>52,84; 129,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,27; -8,76</t>
+          <t>-43,16; -8,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,68; 138,01</t>
+          <t>75,59; 137,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>64,52; 119,06</t>
+          <t>63,93; 119,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,14; -8,36</t>
+          <t>-36,37; -6,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,29; 32,44</t>
+          <t>27,49; 32,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,08; 22,62</t>
+          <t>17,22; 22,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 3,47</t>
+          <t>-1,39; 3,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,31; 30,22</t>
+          <t>25,46; 30,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,18; 23,1</t>
+          <t>18,19; 23,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 21,86</t>
+          <t>-0,7; 23,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,97; 30,57</t>
+          <t>27,03; 30,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,45; 22,02</t>
+          <t>18,65; 22,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 13,94</t>
+          <t>0,01; 16,57</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>118,2; 157,92</t>
+          <t>120,28; 160,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>74,39; 110,43</t>
+          <t>74,32; 108,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 16,82</t>
+          <t>-5,99; 17,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>93,07; 122,2</t>
+          <t>92,26; 122,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>66,06; 92,06</t>
+          <t>66,78; 93,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 85,41</t>
+          <t>-2,58; 90,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>106,65; 130,73</t>
+          <t>107,99; 131,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72,88; 94,67</t>
+          <t>74,54; 95,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 57,71</t>
+          <t>0,01; 68,66</t>
         </is>
       </c>
     </row>
